--- a/biology/Botanique/Ajuga_iva/Ajuga_iva.xlsx
+++ b/biology/Botanique/Ajuga_iva/Ajuga_iva.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ajuga iva est une espèce végétale herbacée de la famille des Lamiacées, du genre Ajuga. Également connue sous le nom d’Ivette musquée, Germandrée musquée ou Bugle fausse ivette (la "vraie" Ivette étant Ajuga chamaepitys), elle est appelée Chandgoura en arabe marocain.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une plante à fleurs généralement rose pâle. Toute la plante est velue, y compris la base de la fleur et des étamines. La base de la tige est ligneuse. Les feuilles sont de forme linéaire à légèrement lancéolée.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On la trouve sur les sols sec et caillouteux, au bord des pistes, friches et lieux herbeux secs.
 </t>
@@ -573,7 +589,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Au Maroc, elle est très abondante dans l'étage bioclimatique aride et semi-aride. Observée même dans les zones sub-humide et humide.
 </t>
@@ -604,10 +622,12 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">On lui attribue aussi des vertus médicinales (hypotenseur, hypoglycémiante, etc.). c'est une plante réputée présenter un large spectre d’activités pharmacologiques ; elle est diurétique; hypoglycémique, hypolipidemique, antihypertensive et vasodilatatrice, elle est considérée comme une panacée au Maghreb[réf. nécessaire]. La pharmacopée marocaine comme panacée (panacée), et spécifiquement pour les troubles gastro-intestinaux et le diabète[Lequel ?], et comme anthelminthique. 
-Sur le modèle animal, expérimentalement, elle ne présente pas de toxicité aiguë ni chronique[1].
+Sur le modèle animal, expérimentalement, elle ne présente pas de toxicité aiguë ni chronique.
 </t>
         </is>
       </c>
